--- a/FS需求统计.xlsx
+++ b/FS需求统计.xlsx
@@ -9,13 +9,17 @@
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
     <sheet name="需求进度跟踪" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求进度跟踪!$A$1:$H$37</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="104">
   <si>
     <t>入口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -319,18 +323,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有接口，未联调</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端未提供接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端接口待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>毕研盛/律英杰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -343,19 +335,118 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Case Detai页面未开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>段雷刚/毕研盛/律英杰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>毕研盛协助</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/7/23 暂定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有接口，未联调
+--------------
+2021/7/23 未更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有接口，未联调
+--------------
+2021/7/23 已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端未提供接口
+--------------
+2021/7/23 未更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端接口待定
+--------------
+2021/7/23 列表接口已提供，未联调（需求有变更）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端未提供接口
+--------------
+2021/7/23 后端接口未提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕研盛协助
+--------------
+2021/7/23 前端完成90% 后端接口有，未联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case Detail页面未开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>2021/7/23 description OK， method未完成   50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计26结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日提供接口，争取联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计26日结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26日前端提供各页面的截图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨聪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段雷刚/毕研盛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统login页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段雷刚/律英杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28日前完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -483,8 +580,20 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,7 +917,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -849,10 +958,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -875,8 +984,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,8 +1003,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -913,10 +1022,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -936,8 +1045,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>36</v>
@@ -953,8 +1062,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +1081,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
@@ -991,10 +1100,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1014,8 +1123,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1142,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1052,10 +1161,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1075,8 +1184,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,8 +1203,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1113,10 +1222,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="13">
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1139,8 +1248,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -1156,8 +1265,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,8 +1284,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1194,10 +1303,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="13">
         <v>6</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1217,8 +1326,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,8 +1345,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1255,10 +1364,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="13">
         <v>7</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1281,8 +1390,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>39</v>
@@ -1301,8 +1410,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,8 +1429,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1339,10 +1448,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="13">
         <v>8</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1365,8 +1474,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>41</v>
@@ -1385,8 +1494,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,8 +1513,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1423,10 +1532,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="13">
         <v>9</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1442,15 +1551,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,8 +1577,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1487,10 +1596,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="13">
         <v>10</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1510,8 +1619,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,8 +1638,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1548,10 +1657,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="13">
         <v>11</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1574,8 +1683,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>44</v>
@@ -1594,8 +1703,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,8 +1722,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1632,10 +1741,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="13">
         <v>12</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1658,8 +1767,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,8 +1786,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1730,21 +1839,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1752,16 +1865,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1769,44 +1891,74 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="5">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="5">
         <v>44400</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G2" s="5"/>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="11">
         <v>44400</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="G3" s="11">
+        <v>44400</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="11">
         <v>44400</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="11">
+        <v>44400</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1814,14 +1966,23 @@
         <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="5">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="5">
         <v>44400</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+      <c r="H5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1829,33 +1990,52 @@
         <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="5">
         <v>44400</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="E7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="11">
         <v>44400</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="11">
+        <v>44400</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1863,16 +2043,26 @@
         <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="5">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="5">
         <v>44400</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1880,16 +2070,26 @@
         <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="5">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="5">
         <v>44400</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="5"/>
+      <c r="H9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1897,16 +2097,23 @@
         <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="5">
         <v>44400</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+      <c r="H10" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1914,33 +2121,404 @@
         <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="5">
         <v>44400</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="5"/>
+      <c r="H11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="5">
+      <c r="F12" s="5">
         <v>44400</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44403</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44403</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H37">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="OPEN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14">
+      <formula1>"OPEN,BLOCK,CLOSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
